--- a/xlsx/法拉利_intext.xlsx
+++ b/xlsx/法拉利_intext.xlsx
@@ -29,25 +29,25 @@
     <t>法拉利 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_法拉利</t>
+    <t>政策_政策_混合动力车辆_法拉利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Enzo_Ferrari</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E5%86%85%E7%BD%97</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Euro</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E4%BD%90%C2%B7%E6%B3%95%E6%8B%89%E5%88%A9</t>
@@ -137,37 +137,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%BB%8A%E6%89%8B</t>
   </si>
   <si>
-    <t>賽車手</t>
+    <t>赛车手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>摩德納</t>
+    <t>摩德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
+    <t>保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%8B%89%E5%80%AB</t>
   </si>
   <si>
-    <t>麥拉倫</t>
+    <t>麦拉伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>賽車</t>
+    <t>赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E5%88%A9%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>法拉利車隊</t>
+    <t>法拉利车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%84%8F</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E8%8A%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>蓮花汽車</t>
+    <t>莲花汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%AF%B6%E5%A0%85%E5%B0%BC</t>
   </si>
   <si>
-    <t>林寶堅尼</t>
+    <t>林宝坚尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%B5%E8%B3%BC</t>
   </si>
   <si>
-    <t>併購</t>
+    <t>并购</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dino_(automobile)</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%9E%8B%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>小型跑車</t>
+    <t>小型跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BF%AB%E7%BE%85%E5%AF%86%E6%AD%90</t>
   </si>
   <si>
-    <t>愛快羅密歐</t>
+    <t>爱快罗密欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%8E%E6%8B%89%E8%92%82</t>
   </si>
   <si>
-    <t>瑪莎拉蒂</t>
+    <t>玛莎拉蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SRT</t>
